--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdina\Documents\GitHub\Caso_3_Analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DACEAE-73E6-4351-A184-BACCC9A1EB37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4EDFB-7548-4F73-A449-49221A4FB765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>N</t>
   </si>
@@ -42,14 +42,14 @@
     <t>C</t>
   </si>
   <si>
-    <t>Resultados</t>
+    <t>LENGUAJE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +59,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,8 +77,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +117,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,16 +141,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,45 +467,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0A17B9-999F-42A1-8BF2-DE1F44AE4BD4}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -651,43 +663,41 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>100000</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -699,10 +709,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>200000</v>
-      </c>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -714,10 +722,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>300000</v>
-      </c>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -729,10 +735,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>400000</v>
-      </c>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -744,10 +748,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>500000</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -759,10 +761,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>600000</v>
-      </c>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -774,10 +774,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>700000</v>
-      </c>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -789,10 +787,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>800000</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -804,10 +800,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>900000</v>
-      </c>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -819,10 +813,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>1000000</v>
-      </c>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -840,43 +832,41 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>100000</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -888,10 +878,8 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>200000</v>
-      </c>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -903,10 +891,8 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>300000</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -918,10 +904,8 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>400000</v>
-      </c>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -933,10 +917,8 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>500000</v>
-      </c>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -948,10 +930,8 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>600000</v>
-      </c>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -963,10 +943,8 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>700000</v>
-      </c>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -978,10 +956,8 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>800000</v>
-      </c>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -993,10 +969,8 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>900000</v>
-      </c>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1008,10 +982,8 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>1000000</v>
-      </c>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1023,42 +995,47 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>100000</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1070,10 +1047,8 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>200000</v>
-      </c>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1085,10 +1060,8 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>300000</v>
-      </c>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1100,10 +1073,8 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>400000</v>
-      </c>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1115,10 +1086,8 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>500000</v>
-      </c>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1130,10 +1099,8 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>600000</v>
-      </c>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1145,10 +1112,8 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>700000</v>
-      </c>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1160,10 +1125,8 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>800000</v>
-      </c>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1175,10 +1138,8 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>900000</v>
-      </c>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1190,10 +1151,8 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>1000000</v>
-      </c>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1205,16 +1164,43 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdina\Documents\GitHub\Caso_3_Analisis_de_algoritmos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\TEC\Analisis de algoritmos\vs projects\Casos\Caso3\Caso_3_Analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4EDFB-7548-4F73-A449-49221A4FB765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4E4D5D-A54D-4DC6-8CE6-CAAD0E277A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,6 +148,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,34 +470,34 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -507,9 +507,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>100000</v>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>7000</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -522,9 +522,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>200000</v>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10000</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -537,9 +537,9 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>300000</v>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>30000</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -552,9 +552,9 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>400000</v>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>50000</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -567,9 +567,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>500000</v>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>70000</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -582,9 +582,9 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>600000</v>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>100000</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -597,9 +597,9 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>700000</v>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>130000</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -612,9 +612,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>800000</v>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>150000</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -627,9 +627,9 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>900000</v>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>170000</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -642,9 +642,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>1000000</v>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>200000</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -657,7 +657,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -670,7 +670,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -683,7 +683,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -696,7 +696,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -709,7 +709,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -722,7 +722,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -735,7 +735,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -748,7 +748,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -761,7 +761,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -774,7 +774,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -787,7 +787,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -800,7 +800,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -813,7 +813,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -826,7 +826,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -839,7 +839,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -852,7 +852,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -865,7 +865,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -878,7 +878,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -891,7 +891,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -904,7 +904,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -917,7 +917,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -930,7 +930,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -943,7 +943,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -956,7 +956,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -969,7 +969,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -982,7 +982,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -995,7 +995,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1008,7 +1008,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1021,7 +1021,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1034,7 +1034,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1047,7 +1047,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1060,7 +1060,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1073,7 +1073,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1099,7 +1099,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1112,7 +1112,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1125,7 +1125,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1151,7 +1151,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1177,7 +1177,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1190,7 +1190,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\TEC\Analisis de algoritmos\vs projects\Casos\Caso3\Caso_3_Analisis_de_algoritmos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdina\Documents\GitHub\Caso_3_Analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4E4D5D-A54D-4DC6-8CE6-CAAD0E277A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82D31E-7D9D-4941-A6B5-4FA034367C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
+    <workbookView xWindow="8916" yWindow="1980" windowWidth="10752" windowHeight="8676" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>N</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>LENGUAJE</t>
+  </si>
+  <si>
+    <t>1.5652481</t>
+  </si>
+  <si>
+    <t>3.0760731</t>
+  </si>
+  <si>
+    <t>27.7962699</t>
+  </si>
+  <si>
+    <t>78.6625097</t>
+  </si>
+  <si>
+    <t>156.1116255</t>
+  </si>
+  <si>
+    <t>322.7119999</t>
+  </si>
+  <si>
+    <t>542.2971938</t>
   </si>
 </sst>
 </file>
@@ -171,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0A17B9-999F-42A1-8BF2-DE1F44AE4BD4}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>5</v>
@@ -483,8 +504,20 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,118 +534,198 @@
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>7000</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="4">
+        <v>7000</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <v>7000</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>10000</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="4">
+        <v>10000</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>30000</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="4">
+        <v>30000</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>50000</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="4">
+        <v>50000</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>70000</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="4">
+        <v>70000</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>70000</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100000</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="4">
+        <v>100000</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>100000</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>130000</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="4">
+        <v>130000</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K9" s="4">
+        <v>130000</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>150000</v>
       </c>
@@ -621,13 +734,20 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="4">
+        <v>150000</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K10" s="4">
+        <v>150000</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>170000</v>
       </c>
@@ -636,13 +756,20 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="4">
+        <v>170000</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K11" s="4">
+        <v>170000</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>200000</v>
       </c>
@@ -651,104 +778,125 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="4">
+        <v>200000</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="4">
+        <v>200000</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="4">
+        <v>300000</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="4">
+        <v>400000</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="4">
+        <v>500000</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="4">
+        <v>600000</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="4">
+        <v>700000</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="4">
+        <v>800000</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="4">
+        <v>900000</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -761,7 +909,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -774,7 +922,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -787,7 +935,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -800,7 +948,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -813,7 +961,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -826,7 +974,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -839,7 +987,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -852,7 +1000,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -865,7 +1013,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -878,7 +1026,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -891,7 +1039,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -904,7 +1052,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -917,7 +1065,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -930,7 +1078,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -943,7 +1091,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -956,7 +1104,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -969,7 +1117,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -982,7 +1130,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -995,7 +1143,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1008,7 +1156,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1021,7 +1169,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1034,7 +1182,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1047,7 +1195,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1060,7 +1208,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1073,7 +1221,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1086,7 +1234,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1099,7 +1247,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1112,7 +1260,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1125,7 +1273,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1138,7 +1286,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1151,7 +1299,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1164,7 +1312,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1177,7 +1325,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1190,7 +1338,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -1199,8 +1347,10 @@
       <c r="K54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdina\Documents\GitHub\Caso_3_Analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82D31E-7D9D-4941-A6B5-4FA034367C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C1600D-62B7-40CE-B764-64263FB93466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8916" yWindow="1980" windowWidth="10752" windowHeight="8676" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>N</t>
   </si>
@@ -64,6 +64,42 @@
   </si>
   <si>
     <t>542.2971938</t>
+  </si>
+  <si>
+    <t>713.631706</t>
+  </si>
+  <si>
+    <t>915.9203375</t>
+  </si>
+  <si>
+    <t>34.6301ms</t>
+  </si>
+  <si>
+    <t>17.6522ms</t>
+  </si>
+  <si>
+    <t>295.4318ms</t>
+  </si>
+  <si>
+    <t>719.9302ms</t>
+  </si>
+  <si>
+    <t>1.4527473s</t>
+  </si>
+  <si>
+    <t>2.9386005s</t>
+  </si>
+  <si>
+    <t>4.7904627s</t>
+  </si>
+  <si>
+    <t>6.4330492s</t>
+  </si>
+  <si>
+    <t>8.1706011s</t>
+  </si>
+  <si>
+    <t>11.5032199s</t>
   </si>
 </sst>
 </file>
@@ -157,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +208,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0A17B9-999F-42A1-8BF2-DE1F44AE4BD4}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>5</v>
@@ -509,15 +548,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="5"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,33 +577,36 @@
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6"/>
+      <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>7000</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,20 +617,22 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="4">
+      <c r="P3" s="4">
         <v>7000</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>10000</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,20 +643,22 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="4">
+      <c r="P4" s="4">
         <v>10000</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>30000</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
@@ -622,20 +669,22 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="4">
+      <c r="P5" s="4">
         <v>30000</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>50000</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -646,20 +695,22 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="4">
+      <c r="P6" s="4">
         <v>50000</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>70000</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -670,20 +721,22 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="4">
+      <c r="P7" s="4">
         <v>70000</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100000</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -694,20 +747,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="4">
+      <c r="P8" s="4">
         <v>100000</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>130000</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
@@ -718,21 +773,25 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="4">
+      <c r="P9" s="4">
         <v>130000</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>150000</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4">
         <v>150000</v>
@@ -740,21 +799,25 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="4">
+      <c r="P10" s="4">
         <v>150000</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>170000</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="4">
         <v>170000</v>
@@ -762,20 +825,22 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="4">
+      <c r="P11" s="4">
         <v>170000</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>200000</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4">
@@ -784,14 +849,14 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="4">
+      <c r="P12" s="4">
         <v>200000</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -806,7 +871,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -821,7 +886,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -836,7 +901,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1347,10 +1412,12 @@
       <c r="K54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdina\Documents\GitHub\Caso_3_Analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C1600D-62B7-40CE-B764-64263FB93466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E35E9-1784-4B0C-A3B9-CB99913E7DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>11.5032199s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.062000 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.093000 s</t>
+  </si>
+  <si>
+    <t>0.860000 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.296000 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.594000 s</t>
+  </si>
+  <si>
+    <t>9.234000 s</t>
+  </si>
+  <si>
+    <t>15.953000 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.948000 s</t>
+  </si>
+  <si>
+    <t>27.665001 s</t>
+  </si>
+  <si>
+    <t>37.442001 s</t>
   </si>
 </sst>
 </file>
@@ -530,7 +560,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,8 +644,12 @@
       <c r="G3" s="4">
         <v>7000</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7114</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="P3" s="4">
         <v>7000</v>
@@ -640,8 +674,12 @@
       <c r="G4" s="4">
         <v>10000</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10114</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="P4" s="4">
         <v>10000</v>
@@ -666,8 +704,12 @@
       <c r="G5" s="4">
         <v>30000</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30114</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="P5" s="4">
         <v>30000</v>
@@ -692,8 +734,12 @@
       <c r="G6" s="4">
         <v>50000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50114</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="P6" s="4">
         <v>50000</v>
@@ -718,8 +764,12 @@
       <c r="G7" s="4">
         <v>70000</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>70114</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="P7" s="4">
         <v>70000</v>
@@ -744,8 +794,12 @@
       <c r="G8" s="4">
         <v>100000</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100114</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="P8" s="4">
         <v>100000</v>
@@ -770,8 +824,12 @@
       <c r="G9" s="4">
         <v>130000</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1">
+        <v>130114</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="P9" s="4">
         <v>130000</v>
@@ -796,8 +854,12 @@
       <c r="G10" s="4">
         <v>150000</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1">
+        <v>150114</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="P10" s="4">
         <v>150000</v>
@@ -822,8 +884,12 @@
       <c r="G11" s="4">
         <v>170000</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1">
+        <v>170114</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="P11" s="4">
         <v>170000</v>
@@ -846,8 +912,12 @@
       <c r="G12" s="4">
         <v>200000</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1">
+        <v>200114</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="P12" s="4">
         <v>200000</v>
@@ -856,106 +926,92 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="4">
-        <v>300000</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="4">
-        <v>400000</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="4">
-        <v>500000</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="4">
-        <v>600000</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="4">
-        <v>700000</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="4">
-        <v>800000</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="4">
-        <v>900000</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdina\Documents\GitHub\Caso_3_Analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E35E9-1784-4B0C-A3B9-CB99913E7DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DAD253-B01C-4C36-9A49-539A993FFBC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>N</t>
   </si>
@@ -130,6 +130,36 @@
   </si>
   <si>
     <t>37.442001 s</t>
+  </si>
+  <si>
+    <t>93391 ms</t>
+  </si>
+  <si>
+    <t>203115 ms</t>
+  </si>
+  <si>
+    <t>1890260 ms</t>
+  </si>
+  <si>
+    <t>5421591 ms</t>
+  </si>
+  <si>
+    <t>10187186 ms</t>
+  </si>
+  <si>
+    <t>21109367 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34343350 ms</t>
+  </si>
+  <si>
+    <t>47155933 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61515655 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85921894 ms</t>
   </si>
 </sst>
 </file>
@@ -557,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0A17B9-999F-42A1-8BF2-DE1F44AE4BD4}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>5</v>
@@ -580,14 +610,8 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,25 +639,17 @@
         <v>1</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>7000</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
@@ -650,20 +666,23 @@
       <c r="I3" s="1">
         <v>7114</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="P3" s="4">
-        <v>7000</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>2863104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>10000</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -680,20 +699,23 @@
       <c r="I4" s="1">
         <v>10114</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="P4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>2502656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>30000</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
@@ -710,20 +732,23 @@
       <c r="I5" s="1">
         <v>30114</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="P5" s="4">
-        <v>30000</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>2506752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>50000</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
@@ -740,20 +765,23 @@
       <c r="I6" s="1">
         <v>50114</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="P6" s="4">
-        <v>50000</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>2506752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>70000</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -770,20 +798,23 @@
       <c r="I7" s="1">
         <v>70114</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="P7" s="4">
-        <v>70000</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>2506752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100000</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
@@ -800,20 +831,23 @@
       <c r="I8" s="1">
         <v>100114</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="P8" s="4">
-        <v>100000</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>2502656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>130000</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
@@ -830,20 +864,23 @@
       <c r="I9" s="1">
         <v>130114</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="P9" s="4">
-        <v>130000</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>2494464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>150000</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
@@ -860,20 +897,23 @@
       <c r="I10" s="1">
         <v>150114</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="P10" s="4">
-        <v>150000</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>2547712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>170000</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
@@ -890,20 +930,23 @@
       <c r="I11" s="1">
         <v>170114</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="P11" s="4">
-        <v>170000</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>2494464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>200000</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
@@ -918,15 +961,14 @@
       <c r="I12" s="1">
         <v>200114</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="P12" s="4">
-        <v>200000</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>2502656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -939,7 +981,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -952,7 +994,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -965,7 +1007,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1468,9 +1510,8 @@
       <c r="K54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdina\Documents\GitHub\Caso_3_Analisis_de_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DAD253-B01C-4C36-9A49-539A993FFBC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCA898-79EF-4BAA-83CC-B493FFFA26E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CD9A4CC-03C2-4C00-8CBE-F79BD6B92BE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>N</t>
   </si>
@@ -72,94 +72,97 @@
     <t>915.9203375</t>
   </si>
   <si>
-    <t>34.6301ms</t>
-  </si>
-  <si>
-    <t>17.6522ms</t>
-  </si>
-  <si>
-    <t>295.4318ms</t>
-  </si>
-  <si>
-    <t>719.9302ms</t>
-  </si>
-  <si>
-    <t>1.4527473s</t>
-  </si>
-  <si>
-    <t>2.9386005s</t>
-  </si>
-  <si>
-    <t>4.7904627s</t>
-  </si>
-  <si>
-    <t>6.4330492s</t>
-  </si>
-  <si>
-    <t>8.1706011s</t>
-  </si>
-  <si>
-    <t>11.5032199s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.062000 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.093000 s</t>
-  </si>
-  <si>
-    <t>0.860000 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.296000 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.594000 s</t>
-  </si>
-  <si>
-    <t>9.234000 s</t>
-  </si>
-  <si>
-    <t>15.953000 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.948000 s</t>
-  </si>
-  <si>
-    <t>27.665001 s</t>
-  </si>
-  <si>
-    <t>37.442001 s</t>
-  </si>
-  <si>
-    <t>93391 ms</t>
-  </si>
-  <si>
-    <t>203115 ms</t>
-  </si>
-  <si>
-    <t>1890260 ms</t>
-  </si>
-  <si>
-    <t>5421591 ms</t>
-  </si>
-  <si>
-    <t>10187186 ms</t>
-  </si>
-  <si>
-    <t>21109367 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34343350 ms</t>
-  </si>
-  <si>
-    <t>47155933 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61515655 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85921894 ms</t>
+    <t xml:space="preserve"> 0.093391</t>
+  </si>
+  <si>
+    <t>0.203115</t>
+  </si>
+  <si>
+    <t>1.89026</t>
+  </si>
+  <si>
+    <t>5.421591</t>
+  </si>
+  <si>
+    <t>10.187186</t>
+  </si>
+  <si>
+    <t>21.109367</t>
+  </si>
+  <si>
+    <t>34.34335</t>
+  </si>
+  <si>
+    <t>47.155933</t>
+  </si>
+  <si>
+    <t>61.515655</t>
+  </si>
+  <si>
+    <t>85.921894</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.062000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.093000</t>
+  </si>
+  <si>
+    <t>0.860000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.296000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.594000</t>
+  </si>
+  <si>
+    <t>9.234000</t>
+  </si>
+  <si>
+    <t>15.953000</t>
+  </si>
+  <si>
+    <t>1.76522e-5</t>
+  </si>
+  <si>
+    <t>3.46301e-5</t>
+  </si>
+  <si>
+    <t>0.0002954318</t>
+  </si>
+  <si>
+    <t>0.0007199302</t>
+  </si>
+  <si>
+    <t>1.4527473</t>
+  </si>
+  <si>
+    <t>2.9386005</t>
+  </si>
+  <si>
+    <t>4.7904627</t>
+  </si>
+  <si>
+    <t>6.4330492</t>
+  </si>
+  <si>
+    <t>8.1706011</t>
+  </si>
+  <si>
+    <t>11.5032199</t>
+  </si>
+  <si>
+    <t>1123.5452276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.948000</t>
+  </si>
+  <si>
+    <t>27.665001</t>
+  </si>
+  <si>
+    <t>37.442001</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,14 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
@@ -648,10 +655,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -667,7 +674,7 @@
         <v>7114</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>2863104</v>
@@ -681,10 +688,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -700,7 +707,7 @@
         <v>10114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>2502656</v>
@@ -714,10 +721,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -733,7 +740,7 @@
         <v>30114</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>2506752</v>
@@ -747,10 +754,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -766,7 +773,7 @@
         <v>50114</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>2506752</v>
@@ -780,10 +787,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -799,7 +806,7 @@
         <v>70114</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>2506752</v>
@@ -813,10 +820,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -832,7 +839,7 @@
         <v>100114</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>2502656</v>
@@ -846,10 +853,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -865,7 +872,7 @@
         <v>130114</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>2494464</v>
@@ -876,13 +883,13 @@
         <v>150000</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -892,13 +899,13 @@
         <v>150000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1">
         <v>150114</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>2547712</v>
@@ -909,13 +916,13 @@
         <v>170000</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -925,13 +932,13 @@
         <v>170000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1">
         <v>170114</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>2494464</v>
@@ -942,27 +949,29 @@
         <v>200000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4">
         <v>200000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1">
         <v>200114</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>2502656</v>
